--- a/biology/Zoologie/Hoazin_huppé/Hoazin_huppé.xlsx
+++ b/biology/Zoologie/Hoazin_huppé/Hoazin_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hoazin_hupp%C3%A9</t>
+          <t>Hoazin_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hoazin huppé ou hoazin (Opisthocomus hoazin), aussi appelé hoatzin ou sassa (en créole guyanais), est une espèce d’oiseaux tropicaux que l’on rencontre en Amérique du Sud, dans les marais des bassins de l’Amazone et de l’Orénoque. C'est la seule espèce de la famille des Opisthocomidae et de l'ordre des Opisthocomiformes, ce qui en fait une espèce extrêmement originale à de nombreux égards.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hoazin_hupp%C3%A9</t>
+          <t>Hoazin_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand oiseau (62 à 70 cm de longueur) arboricole et grégaire. Sa queue est longue et ses ailes sont larges. Il possède un long cou et une petite tête. Celle-ci porte une huppe hérissée. Ses yeux rouges contrastent avec sa face bleue, dépourvue de plumes. C’est un piètre voilier.
 C’est une espèce bruyante, qui émet toute une variété de cris rauques, dont un a été comparé à la respiration asthmatique d’un fumeur.
